--- a/Naaptol/TestData/InputData.xlsx
+++ b/Naaptol/TestData/InputData.xlsx
@@ -966,7 +966,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
